--- a/data files/Purchase Order/techno.xlsx
+++ b/data files/Purchase Order/techno.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B0A5A3-D250-4AC6-BD2F-6FB9542C3B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17304" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
   <si>
     <t>To,</t>
   </si>
@@ -121,13 +122,25 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>SI.</t>
+  </si>
+  <si>
+    <t>Item Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Qty.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Unit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,13 +230,24 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="12">
@@ -367,7 +391,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -384,7 +408,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -401,45 +425,34 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -485,7 +498,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -493,13 +514,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -537,7 +566,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -571,6 +600,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -605,9 +635,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -780,364 +811,372 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="51.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="51.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="51"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75">
+      <c r="B1" s="44"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="46"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="19"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.75">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="19"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75">
-      <c r="A4" s="21" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="19"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="19"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="22"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75">
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="23"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75">
-      <c r="A9" s="53">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="53"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="48">
         <v>1</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55" t="s">
+      <c r="C9" s="49"/>
+      <c r="D9" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="27"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75">
-      <c r="A10" s="53">
+      <c r="E9" s="23"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="48">
         <v>2</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="55" t="s">
+      <c r="C10" s="49"/>
+      <c r="D10" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="27"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75">
-      <c r="A11" s="53">
+      <c r="E10" s="23"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="48">
         <v>3</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="55" t="s">
+      <c r="C11" s="49"/>
+      <c r="D11" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="27"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75">
-      <c r="A12" s="53">
+      <c r="E11" s="23"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="48">
         <v>4</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="55" t="s">
+      <c r="C12" s="51"/>
+      <c r="D12" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="27"/>
-    </row>
-    <row r="13" spans="1:5" ht="15.75">
-      <c r="A13" s="53">
+      <c r="E12" s="23"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="48">
         <v>5</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="55" t="s">
+      <c r="C13" s="49"/>
+      <c r="D13" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="27"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75">
-      <c r="A14" s="53">
+      <c r="E13" s="23"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="48">
         <v>6</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="55" t="s">
+      <c r="C14" s="49"/>
+      <c r="D14" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="27"/>
-    </row>
-    <row r="15" spans="1:5" ht="15.75">
-      <c r="A15" s="53">
+      <c r="E14" s="23"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="48">
         <v>7</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="55" t="s">
+      <c r="C15" s="49"/>
+      <c r="D15" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="27"/>
-    </row>
-    <row r="16" spans="1:5" ht="15.75">
-      <c r="A16" s="53">
+      <c r="E15" s="23"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="48">
         <v>8</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="55" t="s">
+      <c r="C16" s="49"/>
+      <c r="D16" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="27"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.75">
-      <c r="A17" s="53">
+      <c r="E16" s="23"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="48">
         <v>9</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="55" t="s">
+      <c r="C17" s="49"/>
+      <c r="D17" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="27"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.75">
-      <c r="A18" s="53">
+      <c r="E17" s="23"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="48">
         <v>10</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="55" t="s">
+      <c r="C18" s="49"/>
+      <c r="D18" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="27"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.75">
-      <c r="A19" s="53">
+      <c r="E18" s="23"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="48">
         <v>11</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="55" t="s">
+      <c r="C19" s="49"/>
+      <c r="D19" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="27"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.75">
-      <c r="A20" s="53">
+      <c r="E19" s="23"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="48">
         <v>12</v>
       </c>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="55" t="s">
+      <c r="C20" s="49"/>
+      <c r="D20" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="27"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.75">
-      <c r="A21" s="57"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="25"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.75">
+      <c r="E20" s="23"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="48"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="22"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="16"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="25"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.75">
-      <c r="A23" s="28" t="s">
+      <c r="B22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="22"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="30"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.75">
-      <c r="A24" s="28" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="26"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="30"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.75">
-      <c r="A25" s="33" t="s">
+      <c r="B24" s="5"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="26"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="30"/>
-    </row>
-    <row r="26" spans="1:5" ht="15.75">
-      <c r="A26" s="28" t="s">
+      <c r="B25" s="5"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="26"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="36"/>
-    </row>
-    <row r="27" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A27" s="37"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="41"/>
-    </row>
-    <row r="28" spans="1:5" ht="15.75">
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="E26" s="31"/>
+    </row>
+    <row r="27" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="32"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="36"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
       <c r="D28" s="8"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" ht="15.75">
+    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
       <c r="D29" s="8"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" ht="15.75">
+    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="1"/>
       <c r="C30" s="6"/>
       <c r="D30" s="8"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" ht="15.75">
+    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="10"/>
       <c r="C31" s="6"/>
       <c r="D31" s="4"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="12"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="13"/>
       <c r="B34" s="1"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75">
+    <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D38" s="8"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" ht="15.75">
+    <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D39" s="14"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" ht="15.75">
+    <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C40" s="15"/>
       <c r="D40" s="14"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" ht="15.75">
+    <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C41" s="15"/>
       <c r="D41" s="14"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5" ht="15.75">
+    <row r="42" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.11" top="0.12" bottom="0.75" header="0.31" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
@@ -1145,334 +1184,332 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="51.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="51.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="47" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="51"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75">
+      <c r="E1" s="46"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="19"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.75">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="19"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="16"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="19"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="22"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75">
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="23"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="20"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75">
-      <c r="A8" s="52">
+      <c r="B7" s="2"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="47">
         <v>1</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="43">
+      <c r="C8" s="38">
         <v>300</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="27"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75">
-      <c r="A9" s="52">
+      <c r="E8" s="23"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="47">
         <v>2</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="43">
+      <c r="C9" s="38">
         <v>150</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="27"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75">
-      <c r="A10" s="52">
+      <c r="E9" s="23"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="47">
         <v>3</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="27"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75">
-      <c r="A11" s="52"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="27"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75">
-      <c r="A12" s="52">
+      <c r="E10" s="23"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="47"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="23"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="47">
         <v>4</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="43">
+      <c r="C12" s="38">
         <v>20</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="27"/>
-    </row>
-    <row r="13" spans="1:5" ht="15.75">
-      <c r="A13" s="52">
+      <c r="E12" s="23"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="47">
         <v>5</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="43">
+      <c r="C13" s="38">
         <v>300</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="27"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75">
-      <c r="A14" s="52"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="27"/>
-    </row>
-    <row r="15" spans="1:5" ht="15.75">
-      <c r="A15" s="52">
+      <c r="E13" s="23"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="47"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="23"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="47">
         <v>6</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="43">
+      <c r="C15" s="38">
         <v>70</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="27"/>
-    </row>
-    <row r="16" spans="1:5" ht="15.75">
-      <c r="A16" s="52">
+      <c r="E15" s="23"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="47">
         <v>7</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="43">
+      <c r="C16" s="38">
         <v>120</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="27"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.75">
-      <c r="A17" s="52"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="27"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.75">
-      <c r="A18" s="52"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="27"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.75">
-      <c r="A19" s="52"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="27"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.75">
-      <c r="A20" s="52"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="25"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.75">
+      <c r="E16" s="23"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="47"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="23"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="47"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="23"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="47"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="23"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="47"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="22"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="16"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="25"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.75">
-      <c r="A22" s="28" t="s">
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="22"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="30"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.75">
-      <c r="A23" s="28" t="s">
+      <c r="B22" s="5"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="26"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="30"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.75">
-      <c r="A24" s="33" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="26"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="30"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.75">
-      <c r="A25" s="28" t="s">
+      <c r="B24" s="5"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="26"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="36"/>
-    </row>
-    <row r="26" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A26" s="37"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="41"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.75">
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="E25" s="31"/>
+    </row>
+    <row r="26" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="32"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="36"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
       <c r="D27" s="8"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75">
+    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
       <c r="D28" s="8"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" ht="15.75">
+    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="1"/>
       <c r="C29" s="6"/>
       <c r="D29" s="8"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" ht="15.75">
+    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="10"/>
       <c r="C30" s="6"/>
       <c r="D30" s="4"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="12"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="13"/>
       <c r="B33" s="1"/>
     </row>
-    <row r="37" spans="1:5" ht="15.75">
+    <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D37" s="8"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75">
+    <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D38" s="14"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" ht="15.75">
+    <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C39" s="15"/>
       <c r="D39" s="14"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" ht="15.75">
+    <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C40" s="15"/>
       <c r="D40" s="14"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" ht="15.75">
+    <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="3"/>
@@ -1483,12 +1520,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data files/Purchase Order/techno.xlsx
+++ b/data files/Purchase Order/techno.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B0A5A3-D250-4AC6-BD2F-6FB9542C3B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65317A7-B56F-4079-80BB-CFE925D021F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17304" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
@@ -814,17 +814,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="51.5546875" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="51.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
@@ -833,7 +833,7 @@
       <c r="D1" s="42"/>
       <c r="E1" s="46"/>
     </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>15</v>
       </c>
@@ -841,7 +841,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="17"/>
     </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>16</v>
       </c>
@@ -850,7 +850,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="17"/>
     </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>21</v>
       </c>
@@ -859,14 +859,14 @@
       <c r="D4" s="2"/>
       <c r="E4" s="17"/>
     </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="17"/>
     </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>1</v>
       </c>
@@ -875,7 +875,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="19"/>
     </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>2</v>
       </c>
@@ -884,7 +884,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="20"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
         <v>35</v>
       </c>
@@ -901,59 +901,67 @@
       <c r="F8" s="54"/>
       <c r="G8" s="54"/>
     </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="48">
         <v>1</v>
       </c>
       <c r="B9" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="49"/>
+      <c r="C9" s="49">
+        <v>1</v>
+      </c>
       <c r="D9" s="50" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="23"/>
     </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="48">
         <v>2</v>
       </c>
       <c r="B10" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="49"/>
+      <c r="C10" s="49">
+        <v>2</v>
+      </c>
       <c r="D10" s="50" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="23"/>
     </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="48">
         <v>3</v>
       </c>
       <c r="B11" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="49"/>
+      <c r="C11" s="49">
+        <v>7</v>
+      </c>
       <c r="D11" s="50" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="23"/>
     </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="48">
         <v>4</v>
       </c>
       <c r="B12" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="51"/>
+      <c r="C12" s="51">
+        <v>3</v>
+      </c>
       <c r="D12" s="50" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="23"/>
     </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="48">
         <v>5</v>
       </c>
@@ -966,7 +974,7 @@
       </c>
       <c r="E13" s="23"/>
     </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="48">
         <v>6</v>
       </c>
@@ -979,7 +987,7 @@
       </c>
       <c r="E14" s="23"/>
     </row>
-    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="48">
         <v>7</v>
       </c>
@@ -992,7 +1000,7 @@
       </c>
       <c r="E15" s="23"/>
     </row>
-    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="48">
         <v>8</v>
       </c>
@@ -1005,20 +1013,22 @@
       </c>
       <c r="E16" s="23"/>
     </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="48">
         <v>9</v>
       </c>
       <c r="B17" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="49"/>
+      <c r="C17" s="49">
+        <v>400</v>
+      </c>
       <c r="D17" s="50" t="s">
         <v>3</v>
       </c>
       <c r="E17" s="23"/>
     </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="48">
         <v>10</v>
       </c>
@@ -1031,47 +1041,51 @@
       </c>
       <c r="E18" s="23"/>
     </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="48">
         <v>11</v>
       </c>
       <c r="B19" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="49"/>
+      <c r="C19" s="49">
+        <v>25</v>
+      </c>
       <c r="D19" s="50" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E19" s="23"/>
     </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="48">
         <v>12</v>
       </c>
       <c r="B20" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="49"/>
+      <c r="C20" s="49">
+        <v>25</v>
+      </c>
       <c r="D20" s="50" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E20" s="23"/>
     </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="48"/>
       <c r="B21" s="48"/>
       <c r="C21" s="49"/>
       <c r="D21" s="50"/>
-      <c r="E21" s="22"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E21" s="23"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
       <c r="D22" s="2"/>
       <c r="E22" s="22"/>
     </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>4</v>
       </c>
@@ -1080,7 +1094,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="26"/>
     </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>5</v>
       </c>
@@ -1089,7 +1103,7 @@
       <c r="D24" s="28"/>
       <c r="E24" s="26"/>
     </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>6</v>
       </c>
@@ -1098,7 +1112,7 @@
       <c r="D25" s="28"/>
       <c r="E25" s="26"/>
     </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>7</v>
       </c>
@@ -1106,70 +1120,70 @@
       <c r="C26" s="6"/>
       <c r="E26" s="31"/>
     </row>
-    <row r="27" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="32"/>
       <c r="B27" s="33"/>
       <c r="C27" s="34"/>
       <c r="D27" s="35"/>
       <c r="E27" s="36"/>
     </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
       <c r="D28" s="8"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
       <c r="D29" s="8"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="1"/>
       <c r="C30" s="6"/>
       <c r="D30" s="8"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="10"/>
       <c r="C31" s="6"/>
       <c r="D31" s="4"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="1"/>
     </row>
-    <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D38" s="8"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D39" s="14"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C40" s="15"/>
       <c r="D40" s="14"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C41" s="15"/>
       <c r="D41" s="14"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="3"/>
@@ -1191,13 +1205,13 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="51.5546875" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="51.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
@@ -1208,7 +1222,7 @@
       </c>
       <c r="E1" s="46"/>
     </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>25</v>
       </c>
@@ -1216,7 +1230,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="17"/>
     </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>26</v>
       </c>
@@ -1225,14 +1239,14 @@
       <c r="D3" s="2"/>
       <c r="E3" s="17"/>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="17"/>
     </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>1</v>
       </c>
@@ -1241,7 +1255,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="19"/>
     </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>2</v>
       </c>
@@ -1250,14 +1264,14 @@
       <c r="D6" s="2"/>
       <c r="E6" s="20"/>
     </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="2"/>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
       <c r="E7" s="22"/>
     </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="47">
         <v>1</v>
       </c>
@@ -1272,7 +1286,7 @@
       </c>
       <c r="E8" s="23"/>
     </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="47">
         <v>2</v>
       </c>
@@ -1287,7 +1301,7 @@
       </c>
       <c r="E9" s="23"/>
     </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="47">
         <v>3</v>
       </c>
@@ -1302,14 +1316,14 @@
       </c>
       <c r="E10" s="23"/>
     </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="47"/>
       <c r="B11" s="37"/>
       <c r="C11" s="40"/>
       <c r="D11" s="39"/>
       <c r="E11" s="23"/>
     </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="47">
         <v>4</v>
       </c>
@@ -1324,7 +1338,7 @@
       </c>
       <c r="E12" s="23"/>
     </row>
-    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="47">
         <v>5</v>
       </c>
@@ -1339,14 +1353,14 @@
       </c>
       <c r="E13" s="23"/>
     </row>
-    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="47"/>
       <c r="B14" s="37"/>
       <c r="C14" s="38"/>
       <c r="D14" s="39"/>
       <c r="E14" s="23"/>
     </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="47">
         <v>6</v>
       </c>
@@ -1361,7 +1375,7 @@
       </c>
       <c r="E15" s="23"/>
     </row>
-    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="47">
         <v>7</v>
       </c>
@@ -1376,42 +1390,42 @@
       </c>
       <c r="E16" s="23"/>
     </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="47"/>
       <c r="B17" s="37"/>
       <c r="C17" s="38"/>
       <c r="D17" s="39"/>
       <c r="E17" s="23"/>
     </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="47"/>
       <c r="B18" s="37"/>
       <c r="C18" s="38"/>
       <c r="D18" s="39"/>
       <c r="E18" s="23"/>
     </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="47"/>
       <c r="B19" s="37"/>
       <c r="C19" s="38"/>
       <c r="D19" s="39"/>
       <c r="E19" s="23"/>
     </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="47"/>
       <c r="B20" s="37"/>
       <c r="C20" s="41"/>
       <c r="D20" s="37"/>
       <c r="E20" s="22"/>
     </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
       <c r="D21" s="2"/>
       <c r="E21" s="22"/>
     </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>4</v>
       </c>
@@ -1420,7 +1434,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="26"/>
     </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>5</v>
       </c>
@@ -1429,7 +1443,7 @@
       <c r="D23" s="28"/>
       <c r="E23" s="26"/>
     </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>6</v>
       </c>
@@ -1438,7 +1452,7 @@
       <c r="D24" s="28"/>
       <c r="E24" s="26"/>
     </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>7</v>
       </c>
@@ -1446,70 +1460,70 @@
       <c r="C25" s="6"/>
       <c r="E25" s="31"/>
     </row>
-    <row r="26" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="32"/>
       <c r="B26" s="33"/>
       <c r="C26" s="34"/>
       <c r="D26" s="35"/>
       <c r="E26" s="36"/>
     </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
       <c r="D27" s="8"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
       <c r="D28" s="8"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="1"/>
       <c r="C29" s="6"/>
       <c r="D29" s="8"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="10"/>
       <c r="C30" s="6"/>
       <c r="D30" s="4"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="1"/>
     </row>
-    <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D37" s="8"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D38" s="14"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C39" s="15"/>
       <c r="D39" s="14"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C40" s="15"/>
       <c r="D40" s="14"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="3"/>
@@ -1525,7 +1539,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
